--- a/ETHBTC-Arb.xlsx
+++ b/ETHBTC-Arb.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,8 +55,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="172" formatCode="0.00000000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -67,10 +68,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FFD2D9E5"/>
-      <name val="Segoe UI"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -214,10 +216,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -236,11 +239,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -552,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,7 +576,7 @@
     <col min="9" max="9" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -586,7 +591,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
@@ -615,20 +620,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="6">
         <v>0.25786587999999999</v>
       </c>
       <c r="C3" s="5">
         <v>2.7432540300000001</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <f>B3/C3</f>
         <v>9.4000000430146086E-2</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="L3" s="14"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L4" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -641,46 +650,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>0.46920297</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>5.3199999999999997E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1.07553191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
-        <v>0.36531914999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f>SUM(A1:A5)</f>
-        <v>2.7432540299999997</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>